--- a/diff/xlsx/vegetables_diff.xlsx
+++ b/diff/xlsx/vegetables_diff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,34 +436,41 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>vegetables_df1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>vegetables_df2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>LOCATION</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>carrot</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>In vegetables_df1 only</t>
+          <t>broccoli</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>In vegetables_df2 only</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cucumber</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+          <t>carrot</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
         <is>
           <t>In vegetables_df1 only</t>
         </is>
@@ -472,34 +479,119 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>cucumber</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>In vegetables_df1 only</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>green pepper</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>In vegetables_df2 only</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>green pepper</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>In vegetables_df2 only</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>kale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>In vegetables_df2 only</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>onion</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>In vegetables_df2 only</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>peas</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>In vegetables_df2 only</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>potato</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
         <is>
           <t>In vegetables_df1 only</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>spinach</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
         <is>
           <t>In vegetables_df1 only</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>tomato</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>tomato</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>In both DataFrames</t>
         </is>
